--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:45:47+00:00</t>
+    <t>2024-05-03T11:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:27:24+00:00</t>
+    <t>2024-05-03T11:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:29:30+00:00</t>
+    <t>2024-05-03T11:45:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:45:56+00:00</t>
+    <t>2024-05-03T11:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ce profil est utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
+    <t>Profil utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
 La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:56:06+00:00</t>
+    <t>2024-05-03T11:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:59:52+00:00</t>
+    <t>2024-05-03T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T12:59:12+00:00</t>
+    <t>2024-05-28T07:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
